--- a/static/logs.xlsx
+++ b/static/logs.xlsx
@@ -1,53 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaseng/Documents/GitHub/capstone/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7538B27E-EABD-8045-8FF9-369D068E204B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11580" yWindow="1800" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11580" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="userhandler" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model_feedback" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="model_feedback" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>iou_score</t>
+  </si>
+  <si>
+    <t>2023-11-07 16:56:37.623669_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 17:09:07.081520_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 17:22:37.875825_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 17:29:41.226773_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 17:38:40.140133_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 17:43:27.827177_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 17:51:31.398873_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 18:24:12.800196_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-07 18:29:18.603393_model.pth</t>
+  </si>
+  <si>
+    <t>2023-11-09 15:24:56.510538_model.pth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,101 +114,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,205 +437,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="16.83203125" bestFit="1" customWidth="1" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>lipshade_model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>virtualtryon_model</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>iou_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>45237.7060922503</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-11-07 16:56:37.623669_model.pth</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1959400773048401</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>45237.71477674935</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-11-07 17:09:07.081520_model.pth</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3630196452140808</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>45237.72405498491</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-11-07 17:22:37.875825_model.pth</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3.677510466287837e-11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45237.706092250301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.19594007730484009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45237.714776749352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.36301964521408081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45237.724054984908</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3.6775104662878373E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>45237.72895559192</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-11-07 17:29:41.226773_model.pth</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05690067168325186</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>45237.73519257452</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-11-07 17:38:40.140133_model.pth</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5631533861160278</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>45237.73852232996</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-11-07 17:43:27.827177_model.pth</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1995481998491707</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5.6900671683251858E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45237.735192574517</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.56315338611602783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45237.738522329957</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.19954819984917069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>45237.74411914825</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-11-07 17:51:31.398873_model.pth</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1.813633132563552e-10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>45237.76681988589</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-11-07 18:24:12.800196_model.pth</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1.308186198256678e-10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>45237.77036372234</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-11-07 18:29:18.603393_model.pth</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4478417336940765</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>45239.64232622164</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-11-09 15:24:56.510538_model.pth</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3337563574314117</v>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1.8136331325635519E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45237.766819885888</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1.3081861982566781E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45237.770363722339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.44784173369407648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45239.642326221641</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0.33375635743141169</v>
       </c>
     </row>
   </sheetData>
